--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t/>
   </si>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>user_fnln755</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>415 Elm St</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>14421</t>
+  </si>
+  <si>
+    <t>486-30-3284</t>
+  </si>
+  <si>
+    <t>user_fln8801</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>638 Oak St</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>23262</t>
+  </si>
+  <si>
+    <t>694-83-9224</t>
+  </si>
+  <si>
+    <t>user_fl17573</t>
   </si>
 </sst>
 </file>
@@ -467,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -537,6 +579,70 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
